--- a/data/old/COMPROMETIDO.xlsx
+++ b/data/old/COMPROMETIDO.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="COMPROMETIDO"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">COMPROMETIDO!$A$1:$T$128</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="350">
   <si>
     <t>Sociedad</t>
   </si>
@@ -74,6 +77,996 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>100000000893</t>
+  </si>
+  <si>
+    <t>Consumos operadores voz y datos</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Servicios informáticos</t>
+  </si>
+  <si>
+    <t>31.12.2022</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>EN00187</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>100000000350</t>
+  </si>
+  <si>
+    <t>Renting equipamiento informático</t>
+  </si>
+  <si>
+    <t>EN00166</t>
+  </si>
+  <si>
+    <t>100000000192</t>
+  </si>
+  <si>
+    <t>E001 - IT LICENCIAS PUESTO DE TRABAJO</t>
+  </si>
+  <si>
+    <t>21.03.2022</t>
+  </si>
+  <si>
+    <t>25.03.2022</t>
+  </si>
+  <si>
+    <t>Subscripción software Diadem Base</t>
+  </si>
+  <si>
+    <t>nbusto</t>
+  </si>
+  <si>
+    <t>EN00272</t>
+  </si>
+  <si>
+    <t>PED</t>
+  </si>
+  <si>
+    <t>PASA 2023</t>
+  </si>
+  <si>
+    <t>25.11.2022</t>
+  </si>
+  <si>
+    <t>31.12.2023</t>
+  </si>
+  <si>
+    <t>CivilFEM INTRO</t>
+  </si>
+  <si>
+    <t>Licencia: 203767</t>
+  </si>
+  <si>
+    <t>Licencia: 316912</t>
+  </si>
+  <si>
+    <t>Licencia: 360731</t>
+  </si>
+  <si>
+    <t>Licencia: 361044</t>
+  </si>
+  <si>
+    <t>Licencia: 364390</t>
+  </si>
+  <si>
+    <t>Licencia: 41039262</t>
+  </si>
+  <si>
+    <t>Licencia: 626849</t>
+  </si>
+  <si>
+    <t>Licencia: 648556</t>
+  </si>
+  <si>
+    <t>Licencia: 648557</t>
+  </si>
+  <si>
+    <t>100000000352</t>
+  </si>
+  <si>
+    <t>E001 - MANT.APLICACIONES FINANCIERO</t>
+  </si>
+  <si>
+    <t>23.12.2022</t>
+  </si>
+  <si>
+    <t>10.02.2023</t>
+  </si>
+  <si>
+    <t>Perfil_Senior Funcional_ERP (€/h)</t>
+  </si>
+  <si>
+    <t>dasensio</t>
+  </si>
+  <si>
+    <t>EN00444</t>
+  </si>
+  <si>
+    <t>30.12.2022</t>
+  </si>
+  <si>
+    <t>100000000354</t>
+  </si>
+  <si>
+    <t>E001 - MANT.APLICACIONES PRODUCCION</t>
+  </si>
+  <si>
+    <t>07.12.2022</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>Licencias MAXIMO 2023</t>
+  </si>
+  <si>
+    <t>mtirapu</t>
+  </si>
+  <si>
+    <t>EN00005</t>
+  </si>
+  <si>
+    <t>100000000702</t>
+  </si>
+  <si>
+    <t>E001 - MANT.APLICACIONES QSE</t>
+  </si>
+  <si>
+    <t>Servicios de profesionales independiente</t>
+  </si>
+  <si>
+    <t>09.12.2021</t>
+  </si>
+  <si>
+    <t>01.01.2022</t>
+  </si>
+  <si>
+    <t>LICENCIA MÓDULO CALIDAD</t>
+  </si>
+  <si>
+    <t>mbfuertes_ext</t>
+  </si>
+  <si>
+    <t>EN00XXX</t>
+  </si>
+  <si>
+    <t>20.05.2022</t>
+  </si>
+  <si>
+    <t>03.06.2022</t>
+  </si>
+  <si>
+    <t>JHR</t>
+  </si>
+  <si>
+    <t>LICENCIA INICIATIVA Y DONACIONES</t>
+  </si>
+  <si>
+    <t>mgonzalez</t>
+  </si>
+  <si>
+    <t>EN00130</t>
+  </si>
+  <si>
+    <t>22.12.2022</t>
+  </si>
+  <si>
+    <t>Mantenimiento correctivo mensual</t>
+  </si>
+  <si>
+    <t>EN00695</t>
+  </si>
+  <si>
+    <t>E001 - IT COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>Comunicaciones informáticas</t>
+  </si>
+  <si>
+    <t>15.11.2022</t>
+  </si>
+  <si>
+    <t>16.01.2023</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>Contrato nuevas líneas Comms CECOER REN</t>
+  </si>
+  <si>
+    <t>mmunozarana</t>
+  </si>
+  <si>
+    <t>100000002060</t>
+  </si>
+  <si>
+    <t>E001 - MANT.APLICACIONES GESTION ENERGIA</t>
+  </si>
+  <si>
+    <t>Servicios técnicos</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>31.03.2021</t>
+  </si>
+  <si>
+    <t>Informe entregables RETO</t>
+  </si>
+  <si>
+    <t>malvarezdesotomayor</t>
+  </si>
+  <si>
+    <t>EN00345</t>
+  </si>
+  <si>
+    <t>20.12.2022</t>
+  </si>
+  <si>
+    <t>INGENERÍA Y PROGRAMACIÓN</t>
+  </si>
+  <si>
+    <t>mgonzalez72</t>
+  </si>
+  <si>
+    <t>EN00623</t>
+  </si>
+  <si>
+    <t>INSTALACIÓN ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>100000002122</t>
+  </si>
+  <si>
+    <t>E001-TRANSFORMACION DIGITAL GESTION ENER</t>
+  </si>
+  <si>
+    <t>21.12.2021</t>
+  </si>
+  <si>
+    <t>30.09.2022</t>
+  </si>
+  <si>
+    <t>Fase I Fin Soporte</t>
+  </si>
+  <si>
+    <t>rcoca</t>
+  </si>
+  <si>
+    <t>ENTD_GR001</t>
+  </si>
+  <si>
+    <t>Fase II Arranque sistema</t>
+  </si>
+  <si>
+    <t>Fase II Fin Pruebas Integradas</t>
+  </si>
+  <si>
+    <t>Fase II Fin Soporte</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>30.03.2022</t>
+  </si>
+  <si>
+    <t>coste proyecto New Wave Fase II</t>
+  </si>
+  <si>
+    <t>mserrano</t>
+  </si>
+  <si>
+    <t>ENTD_GM007</t>
+  </si>
+  <si>
+    <t>29.12.2021</t>
+  </si>
+  <si>
+    <t>30.04.2022</t>
+  </si>
+  <si>
+    <t>Coste desarrollo CRM - Switching.</t>
+  </si>
+  <si>
+    <t>31.08.2022</t>
+  </si>
+  <si>
+    <t>30.10.2022</t>
+  </si>
+  <si>
+    <t>Sello Electrónico Cualificado</t>
+  </si>
+  <si>
+    <t>SERVICIO DE COMPOSICIÓN DOCUMENTAL</t>
+  </si>
+  <si>
+    <t>10.11.2022</t>
+  </si>
+  <si>
+    <t>15.12.2022</t>
+  </si>
+  <si>
+    <t>Sprint 1 - DMND0004592_Calculadora CO2</t>
+  </si>
+  <si>
+    <t>jrvalverde</t>
+  </si>
+  <si>
+    <t>ENTD_GP002</t>
+  </si>
+  <si>
+    <t>19.01.2023</t>
+  </si>
+  <si>
+    <t>Sprint 2 - DMND0004592_Calculadora CO2</t>
+  </si>
+  <si>
+    <t>16.02.2023</t>
+  </si>
+  <si>
+    <t>Sprint 3 - DMND0004592_Calculadora CO2</t>
+  </si>
+  <si>
+    <t>€/jornada Desarrollador Backend</t>
+  </si>
+  <si>
+    <t>ibernal</t>
+  </si>
+  <si>
+    <t>100000002123</t>
+  </si>
+  <si>
+    <t>E001-TRANSFORMACION DIGITAL PRODUCCION</t>
+  </si>
+  <si>
+    <t>Matenimiento equipos informáticas</t>
+  </si>
+  <si>
+    <t>20.04.2021</t>
+  </si>
+  <si>
+    <t>30.04.2021</t>
+  </si>
+  <si>
+    <t>INTEGRACION CEMS CON SCADAS</t>
+  </si>
+  <si>
+    <t>mfuertes</t>
+  </si>
+  <si>
+    <t>ENTD_PC003</t>
+  </si>
+  <si>
+    <t>26.09.2021</t>
+  </si>
+  <si>
+    <t>01.10.2021</t>
+  </si>
+  <si>
+    <t>Integración activos eólicos</t>
+  </si>
+  <si>
+    <t>ENTD_PC001</t>
+  </si>
+  <si>
+    <t>28.06.2022</t>
+  </si>
+  <si>
+    <t>30.06.2022</t>
+  </si>
+  <si>
+    <t>Integración activos fotovoltáicos</t>
+  </si>
+  <si>
+    <t>14.07.2022</t>
+  </si>
+  <si>
+    <t>08.12.2022</t>
+  </si>
+  <si>
+    <t>Fin del periodo ampliando por Sothis de</t>
+  </si>
+  <si>
+    <t>Tercer Lote en Producción</t>
+  </si>
+  <si>
+    <t>19.09.2022</t>
+  </si>
+  <si>
+    <t>WinCC OA - Dist System 6AV6355-1AA31-8EE</t>
+  </si>
+  <si>
+    <t>WinCC OA - Dist System SUS 6AV6355-1DA00</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver DNP3 6AV6355-1AA31-8DB</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver DNP3 SUS 6AV6355-1DA00</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver IEC 101 6AV6355-1AA31-</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver IEC 101 SUS 6AV6355-1D</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver IEC 104 6AV6355-1AA31-</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver IEC 104 SUS 6AV6355-1D</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver Modbus 6AV6355-1AA31-8</t>
+  </si>
+  <si>
+    <t>WinCC OA - Driver Modbus SUS 6AV6355-1DA</t>
+  </si>
+  <si>
+    <t>WinCC OA - OPC UA Server 6AV6355-1AA31-8</t>
+  </si>
+  <si>
+    <t>WinCC OA - OPC UA Server SUS 6AV6355-1DA</t>
+  </si>
+  <si>
+    <t>WinCC OA - Para Standard REDU 6AV6355-1A</t>
+  </si>
+  <si>
+    <t>WinCC OA - Para Standard REDU SUS 6AV635</t>
+  </si>
+  <si>
+    <t>WinCC OA - RDB 6AV6355-1AA31-8EA0</t>
+  </si>
+  <si>
+    <t>WinCC OA - RDB SUS 6AV6355-1DA00-0EA0</t>
+  </si>
+  <si>
+    <t>WinCC OA - Redundancy 6AV6355-1AA31-8EF0</t>
+  </si>
+  <si>
+    <t>WinCC OA - Redundancy SUS 6AV6355-1DA00-</t>
+  </si>
+  <si>
+    <t>WinCC OA - Server Basic 6AV6355-1AA31-8B</t>
+  </si>
+  <si>
+    <t>WinCC OA - Server Basic SUS 6AV6355-1DA0</t>
+  </si>
+  <si>
+    <t>WinCC OA - Unlimited Tags 6AV6355-1AA31-</t>
+  </si>
+  <si>
+    <t>WinCC OA - Unlimited Tags SUS 6AV6355-1D</t>
+  </si>
+  <si>
+    <t>20.09.2022</t>
+  </si>
+  <si>
+    <t>MEJORAS 2022 WINCC OA</t>
+  </si>
+  <si>
+    <t>20.10.2022</t>
+  </si>
+  <si>
+    <t>14.02.2023</t>
+  </si>
+  <si>
+    <t>Sprint 2 - Gemelo Digital Supply Chain B</t>
+  </si>
+  <si>
+    <t>ENTD_PH011</t>
+  </si>
+  <si>
+    <t>Sprint 3 - Gemelo Digital Supply Chain B</t>
+  </si>
+  <si>
+    <t>26.10.2022</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>CEMS Analytics alcance ampliado.</t>
+  </si>
+  <si>
+    <t>02.12.2022</t>
+  </si>
+  <si>
+    <t>05.12.2022</t>
+  </si>
+  <si>
+    <t>WinCC OA - Custom Comp REDU 6AV6355-1AA3</t>
+  </si>
+  <si>
+    <t>WinCC OA - Custom Comp REDU SUS 6AV6355-</t>
+  </si>
+  <si>
+    <t>100000002124</t>
+  </si>
+  <si>
+    <t>E001-TRANSFORMACION DIGITAL IT</t>
+  </si>
+  <si>
+    <t>01.07.2022</t>
+  </si>
+  <si>
+    <t>01.05.2022</t>
+  </si>
+  <si>
+    <t>ZSR</t>
+  </si>
+  <si>
+    <t>Ampliación CRM Dynamics Fase 1 - V1</t>
+  </si>
+  <si>
+    <t>roromeroj</t>
+  </si>
+  <si>
+    <t>ENTD_TD002</t>
+  </si>
+  <si>
+    <t>2023 (NTT)</t>
+  </si>
+  <si>
+    <t>100000002321</t>
+  </si>
+  <si>
+    <t>E001-TRANSFORMACION DIGITAL I&amp;C</t>
+  </si>
+  <si>
+    <t>13.04.2022</t>
+  </si>
+  <si>
+    <t>29.11.2022</t>
+  </si>
+  <si>
+    <t>Ampliación alcance proyecto</t>
+  </si>
+  <si>
+    <t>ENTD_IC007</t>
+  </si>
+  <si>
+    <t>20.06.2022</t>
+  </si>
+  <si>
+    <t>Año 1 L. base máxima (&gt;120%) 2389UT mes</t>
+  </si>
+  <si>
+    <t>ENTD_IC008</t>
+  </si>
+  <si>
+    <t>26.07.2022</t>
+  </si>
+  <si>
+    <t>PV Soru - Ampliación Ciberseguridad</t>
+  </si>
+  <si>
+    <t>ENTD_IC005</t>
+  </si>
+  <si>
+    <t>30.08.2022</t>
+  </si>
+  <si>
+    <t>Año 1 L. base comprometida (&lt;90%) 1791UT</t>
+  </si>
+  <si>
+    <t>15.09.2022</t>
+  </si>
+  <si>
+    <t>Año 2 L. base comprometida (&lt;90%) 1791UT</t>
+  </si>
+  <si>
+    <t>26.09.2022</t>
+  </si>
+  <si>
+    <t>02.09.2022</t>
+  </si>
+  <si>
+    <t>Perfilado datos sensores medición remota</t>
+  </si>
+  <si>
+    <t>sahernandezmu</t>
+  </si>
+  <si>
+    <t>ENTD_IC006</t>
+  </si>
+  <si>
+    <t>12.01.2023</t>
+  </si>
+  <si>
+    <t>Sprint Fase Iterativa CMC</t>
+  </si>
+  <si>
+    <t>ENTD_IC001</t>
+  </si>
+  <si>
+    <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>PV SORU FASE II – Cambio de Alcance Manu</t>
+  </si>
+  <si>
+    <t>€/h Analista Funcional SHAREPOINT</t>
+  </si>
+  <si>
+    <t>ENTD_IC004</t>
+  </si>
+  <si>
+    <t>€/h Arquitecto SP SHAREPOINT</t>
+  </si>
+  <si>
+    <t>€/h Programador Senior SP SHAREPOINT</t>
+  </si>
+  <si>
+    <t>€/h Responsable del Servicio SHAREPOINT</t>
+  </si>
+  <si>
+    <t>100000002341</t>
+  </si>
+  <si>
+    <t>E001 - MANT.APLICACIONES I&amp;C</t>
+  </si>
+  <si>
+    <t>12.12.2022</t>
+  </si>
+  <si>
+    <t>Renovación Mnto. Licencia Ansys 2023</t>
+  </si>
+  <si>
+    <t>EN00730</t>
+  </si>
+  <si>
+    <t>100000002442</t>
+  </si>
+  <si>
+    <t>E001-TRANSFORMACION DIGITAL SUPPLY CHAIN</t>
+  </si>
+  <si>
+    <t>28.12.2021</t>
+  </si>
+  <si>
+    <t>31.03.2022</t>
+  </si>
+  <si>
+    <t>Coste desarrollo Ampliación SAP ARIBA -</t>
+  </si>
+  <si>
+    <t>ENTD_SU003</t>
+  </si>
+  <si>
+    <t>100000002600</t>
+  </si>
+  <si>
+    <t>E001 - IT INVERSION APLICACIONES</t>
+  </si>
+  <si>
+    <t>23.09.2022</t>
+  </si>
+  <si>
+    <t>14.09.2022</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>EN00714</t>
+  </si>
+  <si>
+    <t>Programador Junior</t>
+  </si>
+  <si>
+    <t>Programador Senior</t>
+  </si>
+  <si>
+    <t>Responsable de proyecto</t>
+  </si>
+  <si>
+    <t>100000002602</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES I&amp;C</t>
+  </si>
+  <si>
+    <t>€/h Mantenimiento evolutivo SAC</t>
+  </si>
+  <si>
+    <t>EN00667</t>
+  </si>
+  <si>
+    <t>100000002604</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES DES.NEGOC.</t>
+  </si>
+  <si>
+    <t>14.12.2022</t>
+  </si>
+  <si>
+    <t>15.01.2023</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto para DMND0008369 Mejor</t>
+  </si>
+  <si>
+    <t>romartinez</t>
+  </si>
+  <si>
+    <t>EN00618</t>
+  </si>
+  <si>
+    <t>Programador Senior para DMND0008369</t>
+  </si>
+  <si>
+    <t>100000002605</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES G.ENERGIA</t>
+  </si>
+  <si>
+    <t>30.11.2022</t>
+  </si>
+  <si>
+    <t>Fase II SIGRE</t>
+  </si>
+  <si>
+    <t>EN00627</t>
+  </si>
+  <si>
+    <t>100000002606</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES PRODUCCION</t>
+  </si>
+  <si>
+    <t>Reparación y conservación</t>
+  </si>
+  <si>
+    <t>17.08.2022</t>
+  </si>
+  <si>
+    <t>APs Aruba AP-515 (RW) Unified AP</t>
+  </si>
+  <si>
+    <t>msalcedo1</t>
+  </si>
+  <si>
+    <t>EN00417</t>
+  </si>
+  <si>
+    <t>Servicios Profesionales para configuraci</t>
+  </si>
+  <si>
+    <t>Switches Aruba 6100 12G</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
+  </si>
+  <si>
+    <t>Servicios profesionales para configuraci</t>
+  </si>
+  <si>
+    <t>Asesoramiento Implantación de NERC</t>
+  </si>
+  <si>
+    <t>jcsanchezs</t>
+  </si>
+  <si>
+    <t>EN00326</t>
+  </si>
+  <si>
+    <t>30.04.2023</t>
+  </si>
+  <si>
+    <t>Visor Geográfico Gestión de Activos</t>
+  </si>
+  <si>
+    <t>EN00691</t>
+  </si>
+  <si>
+    <t>100000002607</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES COMPRAS</t>
+  </si>
+  <si>
+    <t>05.07.2022</t>
+  </si>
+  <si>
+    <t>30.07.2022</t>
+  </si>
+  <si>
+    <t>Consultor (Evolutivos menores) €/h</t>
+  </si>
+  <si>
+    <t>EN00338</t>
+  </si>
+  <si>
+    <t>08.08.2022</t>
+  </si>
+  <si>
+    <t>Desarrollo Nuevos KPIs en QVs Compras</t>
+  </si>
+  <si>
+    <t>EN00434</t>
+  </si>
+  <si>
+    <t>13.10.2022</t>
+  </si>
+  <si>
+    <t>28.11.2022</t>
+  </si>
+  <si>
+    <t>Precio para  PRJ0032310-OLconstrucción,</t>
+  </si>
+  <si>
+    <t>22.11.2022</t>
+  </si>
+  <si>
+    <t>Arranque Division Energia España</t>
+  </si>
+  <si>
+    <t>EN00700</t>
+  </si>
+  <si>
+    <t>Arranque Division Energia Internac</t>
+  </si>
+  <si>
+    <t>100000002608</t>
+  </si>
+  <si>
+    <t>E001 - INVERSION APLICACIONES QSE</t>
+  </si>
+  <si>
+    <t>07.02.2022</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>€/ hora Mantenimiento Evolutivo</t>
+  </si>
+  <si>
+    <t>EN00420</t>
+  </si>
+  <si>
+    <t>M. Evol. Waterfall AN/CONS €/hora</t>
+  </si>
+  <si>
+    <t>EN00697</t>
+  </si>
+  <si>
+    <t>M. Evol. Waterfall PM/SM €/hora</t>
+  </si>
+  <si>
+    <t>M. Evol. Waterfall Sr. FC €/hora</t>
+  </si>
+  <si>
+    <t>M. Evol. Waterfall Sr. TC €/hora</t>
+  </si>
+  <si>
+    <t>EV01</t>
+  </si>
+  <si>
+    <t>ES/2-V/1216/E.03.01</t>
+  </si>
+  <si>
+    <t>02.06.2021</t>
+  </si>
+  <si>
+    <t>07.07.2021</t>
+  </si>
+  <si>
+    <t>Año 3</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>03.01.2023</t>
+  </si>
+  <si>
+    <t>Licencias y servicios Cloud 2023</t>
+  </si>
+  <si>
+    <t>Sistema para manejar el fichero SIPS</t>
+  </si>
+  <si>
+    <t>EN00633</t>
+  </si>
+  <si>
+    <t>ES/2-V/1216/E.03.14</t>
+  </si>
+  <si>
+    <t>14.02.2022</t>
+  </si>
+  <si>
+    <t>28.03.2022</t>
+  </si>
+  <si>
+    <t>Pendiente enero</t>
+  </si>
+  <si>
+    <t>msanzpascua</t>
+  </si>
+  <si>
+    <t>EN00634</t>
+  </si>
+  <si>
+    <t>28.10.2022</t>
+  </si>
+  <si>
+    <t>€/hora Desarrollo Evolutivo y Proyectos</t>
+  </si>
+  <si>
+    <t>argarciap</t>
+  </si>
+  <si>
+    <t>EN00644</t>
+  </si>
+  <si>
+    <t>EN00630</t>
+  </si>
+  <si>
+    <t>€/hora evolutivo</t>
+  </si>
+  <si>
+    <t>EN00641</t>
+  </si>
+  <si>
+    <t>ES/2-Z/0494/E.03.14</t>
+  </si>
+  <si>
+    <t>28.04.2022</t>
+  </si>
+  <si>
+    <t>New Wave Evolutivo €/h</t>
+  </si>
+  <si>
+    <t>EN00654</t>
+  </si>
+  <si>
+    <t>03.11.2022</t>
+  </si>
+  <si>
+    <t>€/h Evolutivo</t>
+  </si>
+  <si>
+    <t>larodriguezqu</t>
+  </si>
+  <si>
+    <t>EN00658</t>
+  </si>
+  <si>
+    <t>23.11.2022</t>
+  </si>
+  <si>
+    <t>Nuevo segmento RAD3 en factura</t>
+  </si>
+  <si>
+    <t>EN00657</t>
   </si>
 </sst>
 </file>
@@ -98,12 +1091,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,7 +1105,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0d0d0d"/>
+        <fgColor rgb="FFff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -151,10 +1149,40 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,59 +1487,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="44.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="38.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="43.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="44.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="38.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="43.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="11.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="37.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -523,7 +1549,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -532,10 +1558,10 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -544,12 +1570,7658 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="8">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9">
+        <v>75000</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="8">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="9">
+        <v>35000</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10002297</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3101258189</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="9">
+        <v>665</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10021639</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3101416118</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H5" s="8">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H6" s="8">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="9">
+        <v>794</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F7" s="8">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H7" s="8">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="9">
+        <v>567</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F8" s="8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H8" s="8">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="9">
+        <v>3996</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H9" s="8">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="9">
+        <v>945</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F10" s="8">
+        <v>50</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H10" s="8">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4671</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F11" s="8">
+        <v>60</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H11" s="8">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1323</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F12" s="8">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H12" s="8">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="9">
+        <v>378</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F13" s="8">
+        <v>80</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2003</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10007574</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3101416138</v>
+      </c>
+      <c r="F14" s="8">
+        <v>90</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H14" s="8">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="9">
+        <v>567</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3101436356</v>
+      </c>
+      <c r="F15" s="8">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="9">
+        <v>121.53</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="9">
+        <v>8844.95</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3101436470</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H16" s="8">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="9">
+        <v>330.06</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="9">
+        <v>24021.77</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3101436470</v>
+      </c>
+      <c r="F17" s="8">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="9">
+        <v>153.53</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="9">
+        <v>11173.91</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3101436470</v>
+      </c>
+      <c r="F18" s="8">
+        <v>30</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H18" s="8">
+        <v>12</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="9">
+        <v>330.06</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="9">
+        <v>24021.77</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8">
+        <v>10002908</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3101427847</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="9">
+        <v>284393.93</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="8">
+        <v>10073588</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3101193058</v>
+      </c>
+      <c r="F20" s="8">
+        <v>30</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="9">
+        <v>22000</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10043964</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3101291481</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="9">
+        <v>3</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="9">
+        <v>15550</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8">
+        <v>10008045</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3101435851</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H22" s="8">
+        <v>12</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O22" s="9">
+        <v>10416.68</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="8">
+        <v>10001737</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3101409988</v>
+      </c>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="9">
+        <v>36</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="9">
+        <v>46101.6</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="8">
+        <v>10007086</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3101032287</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1502.55</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="8">
+        <v>10092918</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3101434199</v>
+      </c>
+      <c r="F25" s="8">
+        <v>20</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H25" s="8">
+        <v>12</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1364.05</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="8">
+        <v>10092918</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3101434199</v>
+      </c>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H26" s="8">
+        <v>12</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1060.14</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3101202143</v>
+      </c>
+      <c r="F27" s="8">
+        <v>50</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H27" s="8">
+        <v>9</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="9">
+        <v>215997.38</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3101202143</v>
+      </c>
+      <c r="F28" s="8">
+        <v>90</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H28" s="8">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="9">
+        <v>99002.62</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3101202143</v>
+      </c>
+      <c r="F29" s="8">
+        <v>80</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H29" s="8">
+        <v>9</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="9">
+        <v>99002.62</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3101202143</v>
+      </c>
+      <c r="F30" s="8">
+        <v>100</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H30" s="8">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O30" s="9">
+        <v>99002.62</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E31" s="8">
+        <v>3101202177</v>
+      </c>
+      <c r="F31" s="8">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" s="9">
+        <v>27900</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E32" s="8">
+        <v>3101205986</v>
+      </c>
+      <c r="F32" s="8">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="9">
+        <v>89250</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8">
+        <v>10050584</v>
+      </c>
+      <c r="E33" s="8">
+        <v>3101346147</v>
+      </c>
+      <c r="F33" s="8">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H33" s="8">
+        <v>10</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="8">
+        <v>10050584</v>
+      </c>
+      <c r="E34" s="8">
+        <v>3101346147</v>
+      </c>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H34" s="8">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="9">
+        <v>11961.5</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E35" s="8">
+        <v>3101408169</v>
+      </c>
+      <c r="F35" s="8">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H35" s="8">
+        <v>12</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O35" s="9">
+        <v>10315.2</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E36" s="8">
+        <v>3101408169</v>
+      </c>
+      <c r="F36" s="8">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O36" s="9">
+        <v>10315.2</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3101408169</v>
+      </c>
+      <c r="F37" s="8">
+        <v>30</v>
+      </c>
+      <c r="G37" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" s="9">
+        <v>13753.6</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3101436241</v>
+      </c>
+      <c r="F38" s="8">
+        <v>10</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H38" s="8">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="9">
+        <v>700</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" s="9">
+        <v>303450</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E39" s="8">
+        <v>3101078219</v>
+      </c>
+      <c r="F39" s="8">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H39" s="8">
+        <v>4</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O39" s="9">
+        <v>36365</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E40" s="8">
+        <v>3101078219</v>
+      </c>
+      <c r="F40" s="8">
+        <v>30</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H40" s="8">
+        <v>4</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O40" s="9">
+        <v>18981</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S40" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3101078219</v>
+      </c>
+      <c r="F41" s="8">
+        <v>40</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H41" s="8">
+        <v>4</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O41" s="9">
+        <v>24327.25</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S41" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3101078219</v>
+      </c>
+      <c r="F42" s="8">
+        <v>50</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H42" s="8">
+        <v>4</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="9">
+        <v>24327.25</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E43" s="8">
+        <v>3101078219</v>
+      </c>
+      <c r="F43" s="8">
+        <v>60</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H43" s="8">
+        <v>4</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="9">
+        <v>8967.67</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3101156413</v>
+      </c>
+      <c r="F44" s="8">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H44" s="8">
+        <v>10</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" s="9">
+        <v>440530.3</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E45" s="8">
+        <v>3101313480</v>
+      </c>
+      <c r="F45" s="8">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H45" s="8">
+        <v>6</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O45" s="9">
+        <v>115427.7</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S45" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10040189</v>
+      </c>
+      <c r="E46" s="8">
+        <v>3101322578</v>
+      </c>
+      <c r="F46" s="8">
+        <v>60</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H46" s="8">
+        <v>12</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O46" s="9">
+        <v>3944</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8">
+        <v>10040189</v>
+      </c>
+      <c r="E47" s="8">
+        <v>3101322578</v>
+      </c>
+      <c r="F47" s="8">
+        <v>50</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H47" s="8">
+        <v>11</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O47" s="9">
+        <v>7888</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E48" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F48" s="8">
+        <v>40</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H48" s="8">
+        <v>9</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L48" s="9">
+        <v>2</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O48" s="9">
+        <v>32.68</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E49" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F49" s="8">
+        <v>140</v>
+      </c>
+      <c r="G49" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H49" s="8">
+        <v>9</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O49" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S49" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F50" s="8">
+        <v>100</v>
+      </c>
+      <c r="G50" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H50" s="8">
+        <v>9</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L50" s="9">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O50" s="9">
+        <v>87.12</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S50" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E51" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F51" s="8">
+        <v>200</v>
+      </c>
+      <c r="G51" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H51" s="8">
+        <v>9</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O51" s="9">
+        <v>1.96</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S51" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E52" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F52" s="8">
+        <v>90</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H52" s="8">
+        <v>9</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L52" s="9">
+        <v>2</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O52" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E53" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F53" s="8">
+        <v>180</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H53" s="8">
+        <v>9</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E54" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F54" s="8">
+        <v>210</v>
+      </c>
+      <c r="G54" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H54" s="8">
+        <v>9</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" s="9">
+        <v>2</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O54" s="9">
+        <v>55.42</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S54" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E55" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F55" s="8">
+        <v>190</v>
+      </c>
+      <c r="G55" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H55" s="8">
+        <v>9</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O55" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S55" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E56" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F56" s="8">
+        <v>80</v>
+      </c>
+      <c r="G56" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H56" s="8">
+        <v>9</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L56" s="9">
+        <v>2</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O56" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S56" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E57" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F57" s="8">
+        <v>170</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H57" s="8">
+        <v>9</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S57" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E58" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F58" s="8">
+        <v>60</v>
+      </c>
+      <c r="G58" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H58" s="8">
+        <v>9</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="9">
+        <v>2</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O58" s="9">
+        <v>32.68</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S58" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E59" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F59" s="8">
+        <v>220</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H59" s="8">
+        <v>9</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O59" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S59" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E60" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F60" s="8">
+        <v>50</v>
+      </c>
+      <c r="G60" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H60" s="8">
+        <v>9</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L60" s="9">
+        <v>2</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O60" s="9">
+        <v>43.58</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S60" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E61" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F61" s="8">
+        <v>150</v>
+      </c>
+      <c r="G61" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H61" s="8">
+        <v>9</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O61" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S61" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E62" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F62" s="8">
+        <v>70</v>
+      </c>
+      <c r="G62" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H62" s="8">
+        <v>9</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L62" s="9">
+        <v>2</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O62" s="9">
+        <v>21.78</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S62" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E63" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F63" s="8">
+        <v>160</v>
+      </c>
+      <c r="G63" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H63" s="8">
+        <v>9</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S63" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E64" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F64" s="8">
+        <v>30</v>
+      </c>
+      <c r="G64" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H64" s="8">
+        <v>9</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L64" s="9">
+        <v>2</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O64" s="9">
+        <v>43.57</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S64" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E65" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F65" s="8">
+        <v>130</v>
+      </c>
+      <c r="G65" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H65" s="8">
+        <v>9</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O65" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q65" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E66" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F66" s="8">
+        <v>10</v>
+      </c>
+      <c r="G66" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H66" s="8">
+        <v>9</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" s="9">
+        <v>2</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O66" s="9">
+        <v>21.79</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S66" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E67" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F67" s="8">
+        <v>110</v>
+      </c>
+      <c r="G67" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H67" s="8">
+        <v>9</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O67" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S67" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E68" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F68" s="8">
+        <v>20</v>
+      </c>
+      <c r="G68" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H68" s="8">
+        <v>9</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L68" s="9">
+        <v>2</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O68" s="9">
+        <v>631.66</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E69" s="8">
+        <v>3101356047</v>
+      </c>
+      <c r="F69" s="8">
+        <v>120</v>
+      </c>
+      <c r="G69" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H69" s="8">
+        <v>9</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O69" s="9">
+        <v>14.21</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S69" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E70" s="8">
+        <v>3101356608</v>
+      </c>
+      <c r="F70" s="8">
+        <v>10</v>
+      </c>
+      <c r="G70" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H70" s="8">
+        <v>12</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O70" s="9">
+        <v>58277.6</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="8">
+        <v>10080127</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3101372732</v>
+      </c>
+      <c r="F71" s="8">
+        <v>20</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L71" s="9">
+        <v>1</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O71" s="9">
+        <v>40800</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="8">
+        <v>10080127</v>
+      </c>
+      <c r="E72" s="8">
+        <v>3101372732</v>
+      </c>
+      <c r="F72" s="8">
+        <v>30</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H72" s="8">
+        <v>2</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L72" s="9">
+        <v>1</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O72" s="9">
+        <v>27060</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="8">
+        <v>10058216</v>
+      </c>
+      <c r="E73" s="8">
+        <v>3101376096</v>
+      </c>
+      <c r="F73" s="8">
+        <v>10</v>
+      </c>
+      <c r="G73" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H73" s="8">
+        <v>3</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" s="9">
+        <v>1</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O73" s="9">
+        <v>84225</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E74" s="8">
+        <v>3101416000</v>
+      </c>
+      <c r="F74" s="8">
+        <v>10</v>
+      </c>
+      <c r="G74" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H74" s="8">
+        <v>12</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L74" s="9">
+        <v>2</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O74" s="9">
+        <v>3268</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E75" s="8">
+        <v>3101416000</v>
+      </c>
+      <c r="F75" s="8">
+        <v>20</v>
+      </c>
+      <c r="G75" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H75" s="8">
+        <v>12</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L75" s="9">
+        <v>2</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O75" s="9">
+        <v>293.26</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S75" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E76" s="8">
+        <v>3101426318</v>
+      </c>
+      <c r="F76" s="8">
+        <v>10</v>
+      </c>
+      <c r="G76" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H76" s="8">
+        <v>12</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L76" s="9">
+        <v>8</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O76" s="9">
+        <v>632</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="8">
+        <v>10004566</v>
+      </c>
+      <c r="E77" s="8">
+        <v>3101426318</v>
+      </c>
+      <c r="F77" s="8">
+        <v>20</v>
+      </c>
+      <c r="G77" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H77" s="8">
+        <v>12</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L77" s="9">
+        <v>8</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O77" s="9">
+        <v>59.2</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E78" s="8">
+        <v>3101315793</v>
+      </c>
+      <c r="F78" s="8">
+        <v>10</v>
+      </c>
+      <c r="G78" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H78" s="8">
+        <v>5</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="L78" s="9">
+        <v>1</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O78" s="9">
+        <v>79020</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="8">
+        <v>10027448</v>
+      </c>
+      <c r="E79" s="8">
+        <v>3101271859</v>
+      </c>
+      <c r="F79" s="8">
+        <v>10</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H79" s="8">
+        <v>11</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L79" s="9">
+        <v>1</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O79" s="9">
+        <v>7809.5</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="8">
+        <v>10000128</v>
+      </c>
+      <c r="E80" s="8">
+        <v>3101308319</v>
+      </c>
+      <c r="F80" s="8">
+        <v>10</v>
+      </c>
+      <c r="G80" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H80" s="8">
+        <v>12</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="9">
+        <v>70</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O80" s="9">
+        <v>249.15</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="8">
+        <v>10052791</v>
+      </c>
+      <c r="E81" s="8">
+        <v>3101327873</v>
+      </c>
+      <c r="F81" s="8">
+        <v>10</v>
+      </c>
+      <c r="G81" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H81" s="8">
+        <v>12</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="9">
+        <v>1</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="O81" s="9">
+        <v>3915</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="8">
+        <v>10000128</v>
+      </c>
+      <c r="E82" s="8">
+        <v>3101345543</v>
+      </c>
+      <c r="F82" s="8">
+        <v>10</v>
+      </c>
+      <c r="G82" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H82" s="8">
+        <v>12</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="9">
+        <v>94.5</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O82" s="9">
+        <v>188.1</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="8">
+        <v>10000128</v>
+      </c>
+      <c r="E83" s="8">
+        <v>3101354448</v>
+      </c>
+      <c r="F83" s="8">
+        <v>10</v>
+      </c>
+      <c r="G83" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H83" s="8">
+        <v>12</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="9">
+        <v>564</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="O83" s="9">
+        <v>4920.23</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="8">
+        <v>10000128</v>
+      </c>
+      <c r="E84" s="8">
+        <v>3101359932</v>
+      </c>
+      <c r="F84" s="8">
+        <v>10</v>
+      </c>
+      <c r="G84" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H84" s="8">
+        <v>9</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L84" s="9">
+        <v>1</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O84" s="9">
+        <v>8725.6</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="8">
+        <v>10003939</v>
+      </c>
+      <c r="E85" s="8">
+        <v>3101362850</v>
+      </c>
+      <c r="F85" s="8">
+        <v>20</v>
+      </c>
+      <c r="G85" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L85" s="9">
+        <v>1</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O85" s="9">
+        <v>10400</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="8">
+        <v>10003939</v>
+      </c>
+      <c r="E86" s="8">
+        <v>3101362850</v>
+      </c>
+      <c r="F86" s="8">
+        <v>30</v>
+      </c>
+      <c r="G86" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L86" s="9">
+        <v>1</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O86" s="9">
+        <v>10400</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="8">
+        <v>10003939</v>
+      </c>
+      <c r="E87" s="8">
+        <v>3101362850</v>
+      </c>
+      <c r="F87" s="8">
+        <v>40</v>
+      </c>
+      <c r="G87" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H87" s="8">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L87" s="9">
+        <v>1</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O87" s="9">
+        <v>10400</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="8">
+        <v>10052791</v>
+      </c>
+      <c r="E88" s="8">
+        <v>3101408629</v>
+      </c>
+      <c r="F88" s="8">
+        <v>20</v>
+      </c>
+      <c r="G88" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H88" s="8">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L88" s="9">
+        <v>1</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O88" s="9">
+        <v>6250</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E89" s="8">
+        <v>3101426308</v>
+      </c>
+      <c r="F89" s="8">
+        <v>20</v>
+      </c>
+      <c r="G89" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H89" s="8">
+        <v>11</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" s="9">
+        <v>180</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O89" s="9">
+        <v>3600</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E90" s="8">
+        <v>3101426308</v>
+      </c>
+      <c r="F90" s="8">
+        <v>30</v>
+      </c>
+      <c r="G90" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H90" s="8">
+        <v>11</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L90" s="9">
+        <v>60</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O90" s="9">
+        <v>1260</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E91" s="8">
+        <v>3101426308</v>
+      </c>
+      <c r="F91" s="8">
+        <v>40</v>
+      </c>
+      <c r="G91" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H91" s="8">
+        <v>11</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" s="9">
+        <v>417</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O91" s="9">
+        <v>8320</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E92" s="8">
+        <v>3101426308</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="G92" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H92" s="8">
+        <v>11</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L92" s="9">
+        <v>36</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="O92" s="9">
+        <v>936</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="8">
+        <v>10006648</v>
+      </c>
+      <c r="E93" s="8">
+        <v>3101429463</v>
+      </c>
+      <c r="F93" s="8">
+        <v>10</v>
+      </c>
+      <c r="G93" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H93" s="8">
+        <v>12</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="9">
+        <v>1</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="O93" s="9">
+        <v>9590</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S93" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E94" s="8">
+        <v>3101205297</v>
+      </c>
+      <c r="F94" s="8">
+        <v>10</v>
+      </c>
+      <c r="G94" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H94" s="8">
+        <v>3</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L94" s="9">
+        <v>1</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O94" s="9">
+        <v>54042.1</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E95" s="8">
+        <v>3101358759</v>
+      </c>
+      <c r="F95" s="8">
+        <v>20</v>
+      </c>
+      <c r="G95" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H95" s="8">
+        <v>9</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L95" s="9">
+        <v>116</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O95" s="9">
+        <v>2208.06</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S95" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E96" s="8">
+        <v>3101358759</v>
+      </c>
+      <c r="F96" s="8">
+        <v>40</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H96" s="8">
+        <v>9</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L96" s="9">
+        <v>126</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="O96" s="9">
+        <v>1476.09</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S96" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T96" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E97" s="8">
+        <v>3101358759</v>
+      </c>
+      <c r="F97" s="8">
+        <v>30</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H97" s="8">
+        <v>9</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L97" s="9">
+        <v>186</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="O97" s="9">
+        <v>3003.9</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S97" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E98" s="8">
+        <v>3101358759</v>
+      </c>
+      <c r="F98" s="8">
+        <v>10</v>
+      </c>
+      <c r="G98" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H98" s="8">
+        <v>9</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L98" s="9">
+        <v>37</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O98" s="9">
+        <v>781.38</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S98" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T98" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="8">
+        <v>10000452</v>
+      </c>
+      <c r="E99" s="8">
+        <v>3101435680</v>
+      </c>
+      <c r="F99" s="8">
+        <v>10</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H99" s="8">
+        <v>12</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L99" s="9">
+        <v>440</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O99" s="9">
+        <v>24037.2</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="8">
+        <v>10006872</v>
+      </c>
+      <c r="E100" s="8">
+        <v>3101431425</v>
+      </c>
+      <c r="F100" s="8">
+        <v>10</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L100" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="O100" s="9">
+        <v>200</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="8">
+        <v>10006872</v>
+      </c>
+      <c r="E101" s="8">
+        <v>3101431425</v>
+      </c>
+      <c r="F101" s="8">
+        <v>20</v>
+      </c>
+      <c r="G101" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L101" s="9">
+        <v>6</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="O101" s="9">
+        <v>1824</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D102" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E102" s="8">
+        <v>3101354122</v>
+      </c>
+      <c r="F102" s="8">
+        <v>10</v>
+      </c>
+      <c r="G102" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H102" s="8">
+        <v>11</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L102" s="9">
+        <v>1</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O102" s="9">
+        <v>38292</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="8">
+        <v>10000469</v>
+      </c>
+      <c r="E103" s="8">
+        <v>3101339399</v>
+      </c>
+      <c r="F103" s="8">
+        <v>30</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H103" s="8">
+        <v>8</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L103" s="9">
+        <v>1</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O103" s="9">
+        <v>691.6</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S103" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="8">
+        <v>10000469</v>
+      </c>
+      <c r="E104" s="8">
+        <v>3101339399</v>
+      </c>
+      <c r="F104" s="8">
+        <v>40</v>
+      </c>
+      <c r="G104" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H104" s="8">
+        <v>8</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L104" s="9">
+        <v>1</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O104" s="9">
+        <v>1622.5</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S104" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="8">
+        <v>10000469</v>
+      </c>
+      <c r="E105" s="8">
+        <v>3101339399</v>
+      </c>
+      <c r="F105" s="8">
+        <v>20</v>
+      </c>
+      <c r="G105" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H105" s="8">
+        <v>8</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L105" s="9">
+        <v>1</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O105" s="9">
+        <v>1056.44</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S105" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" s="8">
+        <v>10000469</v>
+      </c>
+      <c r="E106" s="8">
+        <v>3101339924</v>
+      </c>
+      <c r="F106" s="8">
+        <v>40</v>
+      </c>
+      <c r="G106" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H106" s="8">
+        <v>8</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L106" s="9">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O106" s="9">
+        <v>1600</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S106" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107" s="8">
+        <v>10062500</v>
+      </c>
+      <c r="E107" s="8">
+        <v>3101429550</v>
+      </c>
+      <c r="F107" s="8">
+        <v>10</v>
+      </c>
+      <c r="G107" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H107" s="8">
+        <v>11</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O107" s="9">
+        <v>49830</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D108" s="8">
+        <v>10093534</v>
+      </c>
+      <c r="E108" s="8">
+        <v>3101434238</v>
+      </c>
+      <c r="F108" s="8">
+        <v>10</v>
+      </c>
+      <c r="G108" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H108" s="8">
+        <v>4</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="O108" s="9">
+        <v>68387</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q108" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D109" s="8">
+        <v>10022645</v>
+      </c>
+      <c r="E109" s="8">
+        <v>3101317344</v>
+      </c>
+      <c r="F109" s="8">
+        <v>10</v>
+      </c>
+      <c r="G109" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H109" s="8">
+        <v>7</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="L109" s="9">
+        <v>427</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O109" s="9">
+        <v>5756.48</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S109" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T109" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E110" s="8">
+        <v>3101322548</v>
+      </c>
+      <c r="F110" s="8">
+        <v>10</v>
+      </c>
+      <c r="G110" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H110" s="8">
+        <v>8</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L110" s="9">
+        <v>1</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O110" s="9">
+        <v>1806.2</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q110" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S110" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T110" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D111" s="8">
+        <v>10002699</v>
+      </c>
+      <c r="E111" s="8">
+        <v>3101369224</v>
+      </c>
+      <c r="F111" s="8">
+        <v>10</v>
+      </c>
+      <c r="G111" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H111" s="8">
+        <v>11</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L111" s="9">
+        <v>1</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="O111" s="9">
+        <v>6472.33</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q111" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S111" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E112" s="8">
+        <v>3101413909</v>
+      </c>
+      <c r="F112" s="8">
+        <v>30</v>
+      </c>
+      <c r="G112" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H112" s="8">
+        <v>12</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L112" s="9">
+        <v>1</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O112" s="9">
+        <v>216000</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q112" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S112" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T112" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="8">
+        <v>10000426</v>
+      </c>
+      <c r="E113" s="8">
+        <v>3101413909</v>
+      </c>
+      <c r="F113" s="8">
+        <v>40</v>
+      </c>
+      <c r="G113" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H113" s="8">
+        <v>12</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L113" s="9">
+        <v>1</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="O113" s="9">
+        <v>108000</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q113" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S113" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T113" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E114" s="8">
+        <v>3101226046</v>
+      </c>
+      <c r="F114" s="8">
+        <v>20</v>
+      </c>
+      <c r="G114" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H114" s="8">
+        <v>12</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L114" s="9">
+        <v>750</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O114" s="9">
+        <v>3643.44</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S114" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T114" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8">
+        <v>10008045</v>
+      </c>
+      <c r="E115" s="8">
+        <v>3101428002</v>
+      </c>
+      <c r="F115" s="8">
+        <v>40</v>
+      </c>
+      <c r="G115" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H115" s="8">
+        <v>12</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L115" s="9">
+        <v>175</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="O115" s="9">
+        <v>5250</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q115" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" s="8">
+        <v>10008045</v>
+      </c>
+      <c r="E116" s="8">
+        <v>3101428002</v>
+      </c>
+      <c r="F116" s="8">
+        <v>10</v>
+      </c>
+      <c r="G116" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H116" s="8">
+        <v>12</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L116" s="9">
+        <v>67.3</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="O116" s="9">
+        <v>3112.63</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D117" s="8">
+        <v>10008045</v>
+      </c>
+      <c r="E117" s="8">
+        <v>3101428002</v>
+      </c>
+      <c r="F117" s="8">
+        <v>30</v>
+      </c>
+      <c r="G117" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H117" s="8">
+        <v>12</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L117" s="9">
+        <v>80</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="O117" s="9">
+        <v>2900</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q117" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" s="8">
+        <v>10008045</v>
+      </c>
+      <c r="E118" s="8">
+        <v>3101428002</v>
+      </c>
+      <c r="F118" s="8">
+        <v>20</v>
+      </c>
+      <c r="G118" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H118" s="8">
+        <v>12</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L118" s="9">
+        <v>34</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="O118" s="9">
+        <v>1168.75</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q118" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="8">
+        <v>10001828</v>
+      </c>
+      <c r="E119" s="8">
+        <v>3101101586</v>
+      </c>
+      <c r="F119" s="8">
+        <v>30</v>
+      </c>
+      <c r="G119" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H119" s="8">
+        <v>7</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L119" s="9">
+        <v>150</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="O119" s="9">
+        <v>82800</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S119" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T119" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="8">
+        <v>10001828</v>
+      </c>
+      <c r="E120" s="8">
+        <v>3101197683</v>
+      </c>
+      <c r="F120" s="8">
+        <v>20</v>
+      </c>
+      <c r="G120" s="8">
+        <v>2023</v>
+      </c>
+      <c r="H120" s="8">
+        <v>1</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="L120" s="9">
+        <v>1</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O120" s="9">
+        <v>292956</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T120" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="8">
+        <v>10040020</v>
+      </c>
+      <c r="E121" s="8">
+        <v>3101436248</v>
+      </c>
+      <c r="F121" s="8">
+        <v>10</v>
+      </c>
+      <c r="G121" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H121" s="8">
+        <v>12</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="9">
+        <v>12</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="O121" s="9">
+        <v>12528</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q121" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="8">
+        <v>10003899</v>
+      </c>
+      <c r="E122" s="8">
+        <v>3101230594</v>
+      </c>
+      <c r="F122" s="8">
+        <v>10</v>
+      </c>
+      <c r="G122" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H122" s="8">
+        <v>3</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L122" s="9">
+        <v>1</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O122" s="9">
+        <v>256</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E123" s="8">
+        <v>3101380377</v>
+      </c>
+      <c r="F123" s="8">
+        <v>10</v>
+      </c>
+      <c r="G123" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H123" s="8">
+        <v>12</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="9">
+        <v>350</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O123" s="9">
+        <v>9758</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E124" s="8">
+        <v>3101380395</v>
+      </c>
+      <c r="F124" s="8">
+        <v>10</v>
+      </c>
+      <c r="G124" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H124" s="8">
+        <v>12</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" s="9">
+        <v>700</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="O124" s="9">
+        <v>19488.12</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="8">
+        <v>10041590</v>
+      </c>
+      <c r="E125" s="8">
+        <v>3101435849</v>
+      </c>
+      <c r="F125" s="8">
+        <v>10</v>
+      </c>
+      <c r="G125" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H125" s="8">
+        <v>12</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L125" s="9">
+        <v>90.95</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O125" s="9">
+        <v>4865.83</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E126" s="8">
+        <v>3101279007</v>
+      </c>
+      <c r="F126" s="8">
+        <v>20</v>
+      </c>
+      <c r="G126" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H126" s="8">
+        <v>12</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L126" s="9">
+        <v>1500</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="O126" s="9">
+        <v>75060.49</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="R126" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S126" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T126" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="8">
+        <v>10048866</v>
+      </c>
+      <c r="E127" s="8">
+        <v>3101404134</v>
+      </c>
+      <c r="F127" s="8">
+        <v>10</v>
+      </c>
+      <c r="G127" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H127" s="8">
+        <v>12</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L127" s="9">
+        <v>200</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O127" s="9">
+        <v>826.54</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="8">
+        <v>10003332</v>
+      </c>
+      <c r="E128" s="8">
+        <v>3101414699</v>
+      </c>
+      <c r="F128" s="8">
+        <v>10</v>
+      </c>
+      <c r="G128" s="8">
+        <v>2022</v>
+      </c>
+      <c r="H128" s="8">
+        <v>11</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L128" s="9">
+        <v>1</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O128" s="9">
+        <v>2135.88</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
